--- a/data_output/prism_passive/all_passive_out_strain_msc_SOL_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_SOL_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.731417280957527</v>
+        <v>5.7314172664081644</v>
       </c>
       <c r="C2">
-        <v>8.0250035985682953</v>
+        <v>8.0250036004228829</v>
       </c>
       <c r="D2">
-        <v>-1.3214576845527508</v>
+        <v>-1.3214577031082484</v>
       </c>
       <c r="E2">
-        <v>7.9018054492096059</v>
+        <v>7.9018054335656993</v>
       </c>
       <c r="F2">
-        <v>-15.400901945294819</v>
+        <v>-15.400901952055063</v>
       </c>
       <c r="G2">
-        <v>12.026855380532776</v>
+        <v>12.026855377970074</v>
       </c>
       <c r="H2">
-        <v>8.7393254928257118</v>
+        <v>8.7393254753664245</v>
       </c>
       <c r="I2">
-        <v>8.515279438550257</v>
+        <v>8.5152794298599144</v>
       </c>
       <c r="J2">
-        <v>13.739174317990713</v>
+        <v>13.739174324801819</v>
       </c>
       <c r="K2">
-        <v>9.28264413625927</v>
+        <v>9.2826441320205184</v>
       </c>
       <c r="L2">
-        <v>16.396110384188411</v>
+        <v>16.39611035523653</v>
       </c>
       <c r="M2">
-        <v>6.4982421516556181</v>
+        <v>6.4982421365469429</v>
       </c>
       <c r="N2">
-        <v>12.089436846092971</v>
+        <v>12.089436823018017</v>
       </c>
       <c r="O2">
-        <v>8.7353553088535474</v>
+        <v>8.7353552939936137</v>
       </c>
       <c r="P2">
-        <v>5.8054055283114536</v>
+        <v>5.8054055337591528</v>
       </c>
       <c r="Q2">
-        <v>9.7788669703511513</v>
+        <v>9.7788669660783096</v>
       </c>
       <c r="R2">
-        <v>5.749002681980631</v>
+        <v>5.7490026772609859</v>
       </c>
       <c r="S2">
-        <v>8.4106615683220376</v>
+        <v>8.4106615647481959</v>
       </c>
       <c r="T2">
-        <v>9.8131025560263545</v>
+        <v>9.8131025441648436</v>
       </c>
       <c r="U2">
-        <v>17.297465776697436</v>
+        <v>17.297465762338309</v>
       </c>
       <c r="V2">
-        <v>6.6421490310335134</v>
+        <v>6.6421490269690198</v>
       </c>
       <c r="W2">
-        <v>7.2718138479926058</v>
+        <v>7.2718138397480132</v>
       </c>
       <c r="X2">
-        <v>11.839317970632372</v>
+        <v>11.839317963720369</v>
       </c>
       <c r="Y2">
-        <v>11.028136245926193</v>
+        <v>11.02813622881671</v>
       </c>
       <c r="Z2">
-        <v>-0.57014179997215209</v>
+        <v>-0.57014181075018533</v>
       </c>
       <c r="AA2">
-        <v>16.435719907907544</v>
+        <v>16.435719882738358</v>
       </c>
       <c r="AB2">
-        <v>9.8091360549915407</v>
+        <v>9.8091360549454993</v>
       </c>
       <c r="AC2">
-        <v>11.571941286019996</v>
+        <v>11.571941283508178</v>
       </c>
       <c r="AD2">
-        <v>6.9958215529561842</v>
+        <v>6.9958215346480594</v>
       </c>
       <c r="AE2">
-        <v>-0.76256992960097902</v>
+        <v>-0.76256993056497868</v>
       </c>
       <c r="AF2">
-        <v>9.418682541374606</v>
+        <v>9.4186825413503463</v>
       </c>
       <c r="AG2">
-        <v>11.870817474283395</v>
+        <v>11.870817461256406</v>
       </c>
       <c r="AH2">
-        <v>7.0808337215262513</v>
+        <v>7.0808337172115623</v>
       </c>
       <c r="AI2">
-        <v>19.864195787199566</v>
+        <v>19.86419578284691</v>
       </c>
       <c r="AJ2">
-        <v>7.0368869668286749</v>
+        <v>7.0368869545127559</v>
       </c>
       <c r="AK2">
-        <v>12.880875189546753</v>
+        <v>12.880875163871716</v>
       </c>
       <c r="AL2">
-        <v>10.197437994383399</v>
+        <v>10.197437980016479</v>
       </c>
       <c r="AM2">
-        <v>9.5455629137991771</v>
+        <v>9.5455628923956759</v>
       </c>
       <c r="AN2">
-        <v>9.4831586413784095</v>
+        <v>9.4831586251070377</v>
       </c>
       <c r="AO2">
-        <v>9.5265477684399666</v>
+        <v>9.526547754780351</v>
       </c>
       <c r="AP2">
-        <v>8.7357954883250688</v>
+        <v>8.7357954832116604</v>
       </c>
       <c r="AQ2">
-        <v>7.8740898811644842</v>
+        <v>7.8740898683489382</v>
       </c>
       <c r="AR2">
-        <v>10.203182548682294</v>
+        <v>10.203182544198723</v>
       </c>
       <c r="AS2">
-        <v>10.885455727027695</v>
+        <v>10.885455720221914</v>
       </c>
       <c r="AT2">
-        <v>12.227095398484682</v>
+        <v>12.227095391405488</v>
       </c>
       <c r="AU2">
-        <v>8.7760186377285123</v>
+        <v>8.7760186343393549</v>
       </c>
       <c r="AV2">
-        <v>4.6707959093417264</v>
+        <v>4.6707959037826159</v>
       </c>
       <c r="AW2">
-        <v>10.010851443547761</v>
+        <v>10.010851440399474</v>
       </c>
       <c r="AX2">
-        <v>10.009861493830414</v>
+        <v>10.009861481725071</v>
       </c>
       <c r="AY2">
-        <v>13.148435350603634</v>
+        <v>13.148435343673556</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.0116437552806214</v>
+        <v>8.0116437613089886</v>
       </c>
       <c r="C3">
-        <v>10.115318722051732</v>
+        <v>10.115318708339323</v>
       </c>
       <c r="D3">
-        <v>16.423085477512526</v>
+        <v>16.423085468980457</v>
       </c>
       <c r="E3">
-        <v>7.6904318078611702</v>
+        <v>7.6904318039960913</v>
       </c>
       <c r="F3">
-        <v>4.6503373686071656</v>
+        <v>4.6503373619565931</v>
       </c>
       <c r="G3">
-        <v>10.430565669459451</v>
+        <v>10.430565661552942</v>
       </c>
       <c r="H3">
-        <v>13.490900173783768</v>
+        <v>13.490900154954662</v>
       </c>
       <c r="I3">
-        <v>8.704075768999898</v>
+        <v>8.7040757640053776</v>
       </c>
       <c r="J3">
-        <v>13.694068815188057</v>
+        <v>13.694068812081891</v>
       </c>
       <c r="K3">
-        <v>13.157924966599207</v>
+        <v>13.157924950644142</v>
       </c>
       <c r="L3">
-        <v>27.072190448580113</v>
+        <v>27.072190427149877</v>
       </c>
       <c r="M3">
-        <v>6.3956070470112616</v>
+        <v>6.395554665247519</v>
       </c>
       <c r="N3">
-        <v>9.967180333321096</v>
+        <v>9.9671803188293833</v>
       </c>
       <c r="O3">
-        <v>6.0993965276501605</v>
+        <v>6.0993965164398682</v>
       </c>
       <c r="P3">
-        <v>10.552449920538368</v>
+        <v>10.552449907055683</v>
       </c>
       <c r="Q3">
-        <v>5.7206405430178204</v>
+        <v>5.7206405358955337</v>
       </c>
       <c r="R3">
-        <v>7.1870337686707657</v>
+        <v>7.1870337627415513</v>
       </c>
       <c r="S3">
-        <v>7.4678042408134857</v>
+        <v>7.4678042350527551</v>
       </c>
       <c r="T3">
-        <v>9.4633569708162408</v>
+        <v>9.4633569565776021</v>
       </c>
       <c r="U3">
-        <v>10.215870031696712</v>
+        <v>10.215870017875918</v>
       </c>
       <c r="V3">
-        <v>15.333123487029917</v>
+        <v>15.333123479633079</v>
       </c>
       <c r="W3">
-        <v>9.6149433495945438</v>
+        <v>9.6149433161986728</v>
       </c>
       <c r="X3">
-        <v>8.3466521270671752</v>
+        <v>8.3466521035662105</v>
       </c>
       <c r="Y3">
-        <v>7.9512090969752185</v>
+        <v>7.9512090894450784</v>
       </c>
       <c r="Z3">
-        <v>7.2604359517033172</v>
+        <v>7.2604359439334232</v>
       </c>
       <c r="AA3">
-        <v>13.425705461922677</v>
+        <v>13.425705447654176</v>
       </c>
       <c r="AB3">
-        <v>9.5105836513261082</v>
+        <v>9.5105836414321008</v>
       </c>
       <c r="AC3">
-        <v>15.778554952842022</v>
+        <v>15.778554936685699</v>
       </c>
       <c r="AD3">
-        <v>9.5699122454483447</v>
+        <v>9.5699122228470017</v>
       </c>
       <c r="AE3">
-        <v>10.141371372094882</v>
+        <v>10.141371372698019</v>
       </c>
       <c r="AF3">
-        <v>12.082563621775925</v>
+        <v>12.082563610287933</v>
       </c>
       <c r="AG3">
-        <v>16.269742433502042</v>
+        <v>16.269742416812864</v>
       </c>
       <c r="AH3">
-        <v>12.211551179388943</v>
+        <v>12.211551177328369</v>
       </c>
       <c r="AI3">
-        <v>13.496878885635116</v>
+        <v>13.496878861595416</v>
       </c>
       <c r="AJ3">
-        <v>15.30843814473557</v>
+        <v>15.308438122753918</v>
       </c>
       <c r="AK3">
-        <v>25.592610844434905</v>
+        <v>25.592610822505829</v>
       </c>
       <c r="AL3">
-        <v>11.303093638340981</v>
+        <v>11.303093631787851</v>
       </c>
       <c r="AM3">
-        <v>7.8538348946007268</v>
+        <v>7.8538348792333954</v>
       </c>
       <c r="AN3">
-        <v>5.6930083696743505</v>
+        <v>5.693008361028757</v>
       </c>
       <c r="AO3">
-        <v>11.931113191923602</v>
+        <v>11.93111318100774</v>
       </c>
       <c r="AP3">
-        <v>7.9678808449289287</v>
+        <v>7.9678808321407111</v>
       </c>
       <c r="AQ3">
-        <v>8.3493449738138281</v>
+        <v>8.3493449710938048</v>
       </c>
       <c r="AR3">
-        <v>11.123005877892705</v>
+        <v>11.123005867037428</v>
       </c>
       <c r="AS3">
-        <v>8.7877723849451854</v>
+        <v>8.7877723744029517</v>
       </c>
       <c r="AT3">
-        <v>8.5189728348005023</v>
+        <v>8.5189728238005902</v>
       </c>
       <c r="AU3">
-        <v>10.117447236235032</v>
+        <v>10.117447226556783</v>
       </c>
       <c r="AV3">
-        <v>10.759722719060715</v>
+        <v>10.759722690948298</v>
       </c>
       <c r="AW3">
-        <v>9.1741580503239319</v>
+        <v>9.1741580415979218</v>
       </c>
       <c r="AX3">
-        <v>9.4713369609311222</v>
+        <v>9.4713369494748854</v>
       </c>
       <c r="AY3">
-        <v>8.7141381994114706</v>
+        <v>8.7141381900962838</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_msc_SOL_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_SOL_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>5.7314172664081644</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>8.0250036004228829</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-1.3214577031082484</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>7.9018054335656993</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-15.400901952055063</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>12.026855377970074</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>8.7393254753664245</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>8.5152794298599144</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>13.739174324801819</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>9.2826441320205184</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>16.39611035523653</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>6.4982421365469429</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.089436823018017</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>8.7353552939936137</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>5.8054055337591528</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>9.7788669660783096</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>5.7490026772609859</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>8.4106615647481959</v>
+        <v>8.4106749162595058</v>
       </c>
       <c r="T2">
         <v>9.8131025441648436</v>
@@ -576,147 +465,144 @@
         <v>6.6421490269690198</v>
       </c>
       <c r="W2">
-        <v>7.2718138397480132</v>
+        <v>7.2718264528951488</v>
       </c>
       <c r="X2">
-        <v>11.839317963720369</v>
+        <v>11.839302292939241</v>
       </c>
       <c r="Y2">
         <v>11.02813622881671</v>
       </c>
       <c r="Z2">
-        <v>-0.57014181075018533</v>
+        <v>-0.57015648720054057</v>
       </c>
       <c r="AA2">
-        <v>16.435719882738358</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>9.8091360549454993</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>11.571941283508178</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>6.9958215346480594</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-0.76256993056497868</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>9.4186825413503463</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>11.870817461256406</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>7.0808337172115623</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>19.86419578284691</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>7.0368869545127559</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>12.880875163871716</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>10.197437980016479</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>9.5455628923956759</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>9.4831586251070377</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>9.526547754780351</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>8.7357954832116604</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>7.8740898683489382</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>10.203182544198723</v>
+        <v>10.203168828118288</v>
       </c>
       <c r="AS2">
         <v>10.885455720221914</v>
       </c>
       <c r="AT2">
-        <v>12.227095391405488</v>
+        <v>12.227113089654722</v>
       </c>
       <c r="AU2">
-        <v>8.7760186343393549</v>
+        <v>8.7760053304092267</v>
       </c>
       <c r="AV2">
-        <v>4.6707959037826159</v>
+        <v>4.6708083591767577</v>
       </c>
       <c r="AW2">
-        <v>10.010851440399474</v>
+        <v>10.010836125478281</v>
       </c>
       <c r="AX2">
-        <v>10.009861481725071</v>
+        <v>10.009845589723616</v>
       </c>
       <c r="AY2">
-        <v>13.148435343673556</v>
+        <v>13.148417912189913</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>8.0116437613089886</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>10.115318708339323</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>16.423085468980457</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>7.6904318039960913</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4.6503373619565931</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>10.430565661552942</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>13.490900154954662</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>8.7040757640053776</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>13.694068812081891</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>13.157924950644142</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>27.072190427149877</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>6.395554665247519</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>9.9671803188293833</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>6.0993965164398682</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>10.552449907055683</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>5.7206405358955337</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>7.1870337627415513</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>7.4678042350527551</v>
@@ -728,94 +614,94 @@
         <v>10.215870017875918</v>
       </c>
       <c r="V3">
-        <v>15.333123479633079</v>
+        <v>15.333108847736398</v>
       </c>
       <c r="W3">
-        <v>9.6149433161986728</v>
+        <v>9.6149282155745688</v>
       </c>
       <c r="X3">
-        <v>8.3466521035662105</v>
+        <v>8.3466666554063362</v>
       </c>
       <c r="Y3">
-        <v>7.9512090894450784</v>
+        <v>21.505852446001569</v>
       </c>
       <c r="Z3">
-        <v>7.2604359439334232</v>
+        <v>9.7252757012376332</v>
       </c>
       <c r="AA3">
-        <v>13.425705447654176</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>9.5105836414321008</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>15.778554936685699</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>9.5699122228470017</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>10.141371372698019</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>12.082563610287933</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>16.269742416812864</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>12.211551177328369</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>13.496878861595416</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>15.308438122753918</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>25.592610822505829</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>11.303093631787851</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>7.8538348792333954</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>5.693008361028757</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>11.93111318100774</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>7.9678808321407111</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>8.3493449710938048</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>11.123005867037428</v>
+        <v>11.123019677438768</v>
       </c>
       <c r="AS3">
-        <v>8.7877723744029517</v>
+        <v>8.7877580561886042</v>
       </c>
       <c r="AT3">
         <v>8.5189728238005902</v>
       </c>
       <c r="AU3">
-        <v>10.117447226556783</v>
+        <v>10.117433696941115</v>
       </c>
       <c r="AV3">
-        <v>10.759722690948298</v>
+        <v>10.759707213976771</v>
       </c>
       <c r="AW3">
         <v>9.1741580415979218</v>
       </c>
       <c r="AX3">
-        <v>9.4713369494748854</v>
+        <v>11.506768774115809</v>
       </c>
       <c r="AY3">
-        <v>8.7141381900962838</v>
+        <v>31.933102865980935</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_msc_SOL_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_SOL_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.7314308642495631</v>
+        <v>8.7353400442822213</v>
       </c>
       <c r="C2">
-        <v>10.870114282893365</v>
+        <v>5.7490026772609859</v>
       </c>
       <c r="D2">
-        <v>-1.3214744018297195</v>
+        <v>9.4831743166300608</v>
       </c>
       <c r="E2">
-        <v>7.9018199644535203</v>
+        <v>7.8741025572924395</v>
       </c>
       <c r="F2">
         <v>-15.400901945294819</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.0116437552806214</v>
+        <v>6.0993965164398682</v>
       </c>
       <c r="C3">
-        <v>13.906945782136631</v>
+        <v>7.1870464587086405</v>
       </c>
       <c r="D3">
-        <v>16.423106065154865</v>
+        <v>5.6930233603028739</v>
       </c>
       <c r="E3">
-        <v>7.6904169523548598</v>
+        <v>8.3593872193739411</v>
       </c>
       <c r="F3">
         <v>4.6503373686071656</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_SOL_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_SOL_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.7314308642495631</v>
+        <v>4.9914799125796581</v>
       </c>
       <c r="C2">
-        <v>10.870114282893365</v>
+        <v>10.069361275186626</v>
       </c>
       <c r="D2">
-        <v>-1.3214744018297195</v>
+        <v>12.036486069528083</v>
       </c>
       <c r="E2">
-        <v>7.9018199644535203</v>
+        <v>10.663079852511585</v>
       </c>
       <c r="F2">
         <v>-15.400901945294819</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.0116437552806214</v>
+        <v>3.8442887910512433</v>
       </c>
       <c r="C3">
-        <v>13.906945782136631</v>
+        <v>6.0993965164398682</v>
       </c>
       <c r="D3">
-        <v>16.423106065154865</v>
+        <v>14.79003409347435</v>
       </c>
       <c r="E3">
-        <v>7.6904169523548598</v>
+        <v>5.6930233603028739</v>
       </c>
       <c r="F3">
         <v>4.6503373686071656</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_SOL_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_SOL_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>5.8366848663924902</v>
+      </c>
+      <c r="C2">
+        <v>10.870114284796797</v>
+      </c>
+      <c r="D2">
+        <v>-8.2956478562770178E-2</v>
+      </c>
+      <c r="E2">
+        <v>9.3207172685933219</v>
+      </c>
+      <c r="F2">
+        <v>-15.400901952055063</v>
+      </c>
+      <c r="G2">
+        <v>12.026870613468853</v>
+      </c>
+      <c r="H2">
+        <v>8.9799796055144743</v>
+      </c>
+      <c r="I2">
+        <v>8.9378342039666094</v>
+      </c>
+      <c r="J2">
+        <v>13.756837766743063</v>
+      </c>
+      <c r="K2">
+        <v>21.060877499772758</v>
+      </c>
+      <c r="L2">
+        <v>17.815620715379605</v>
+      </c>
+      <c r="M2">
+        <v>6.4982421365469429</v>
+      </c>
+      <c r="N2">
         <v>4.9914799125796581</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>10.069361275186626</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>5.8054055337591528</v>
+      </c>
+      <c r="Q2">
+        <v>19.953170438629126</v>
+      </c>
+      <c r="R2">
+        <v>5.7490026772609859</v>
+      </c>
+      <c r="S2">
+        <v>8.654916274516955</v>
+      </c>
+      <c r="T2">
+        <v>9.8131025441648436</v>
+      </c>
+      <c r="U2">
+        <v>17.664530348706016</v>
+      </c>
+      <c r="V2">
+        <v>7.4643454706944388</v>
+      </c>
+      <c r="W2">
+        <v>8.3466529665270279</v>
+      </c>
+      <c r="X2">
+        <v>12.391896621326856</v>
+      </c>
+      <c r="Y2">
+        <v>11.223158576369432</v>
+      </c>
+      <c r="Z2">
+        <v>-0.57015648720054057</v>
+      </c>
+      <c r="AA2">
+        <v>16.596730496597392</v>
+      </c>
+      <c r="AB2">
+        <v>5.7338276880741157</v>
+      </c>
+      <c r="AC2">
+        <v>12.637446795066785</v>
+      </c>
+      <c r="AD2">
+        <v>8.2416064377281373</v>
+      </c>
+      <c r="AE2">
+        <v>-0.76256993056497868</v>
+      </c>
+      <c r="AF2">
+        <v>9.4186679141717118</v>
+      </c>
+      <c r="AG2">
+        <v>12.080527930343044</v>
+      </c>
+      <c r="AH2">
+        <v>7.2848774679622599</v>
+      </c>
+      <c r="AI2">
+        <v>19.90782187311758</v>
+      </c>
+      <c r="AJ2">
+        <v>8.8193291831932328</v>
+      </c>
+      <c r="AK2">
+        <v>13.854309229760439</v>
+      </c>
+      <c r="AL2">
+        <v>10.197424148266936</v>
+      </c>
+      <c r="AM2">
         <v>12.036486069528083</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>10.663079852511585</v>
       </c>
-      <c r="F2">
-        <v>-15.400901945294819</v>
-      </c>
-      <c r="G2">
-        <v>12.026870616031557</v>
-      </c>
-      <c r="H2">
-        <v>8.7393254928257118</v>
-      </c>
-      <c r="I2">
-        <v>8.5152663628253009</v>
-      </c>
-      <c r="J2">
-        <v>13.739192274669998</v>
-      </c>
-      <c r="K2">
-        <v>20.358617149932975</v>
-      </c>
-      <c r="L2">
-        <v>16.396130029544707</v>
-      </c>
-      <c r="M2">
-        <v>6.4982421516556181</v>
-      </c>
-      <c r="N2">
-        <v>4.2037384757859373</v>
-      </c>
-      <c r="O2">
-        <v>8.7353400591421515</v>
-      </c>
-      <c r="P2">
-        <v>5.8054055283114536</v>
-      </c>
-      <c r="Q2">
-        <v>19.953170443297971</v>
-      </c>
-      <c r="R2">
-        <v>5.749002681980631</v>
-      </c>
-      <c r="S2">
-        <v>8.4106749198333475</v>
-      </c>
-      <c r="T2">
-        <v>9.8131025560263545</v>
-      </c>
-      <c r="U2">
-        <v>17.297465776697436</v>
-      </c>
-      <c r="V2">
-        <v>6.6421490310335134</v>
-      </c>
-      <c r="W2">
-        <v>7.275361954494139</v>
-      </c>
-      <c r="X2">
-        <v>11.839302299851242</v>
-      </c>
-      <c r="Y2">
-        <v>11.028136245926193</v>
-      </c>
-      <c r="Z2">
-        <v>-0.57015647642250888</v>
-      </c>
-      <c r="AA2">
-        <v>16.43573521950886</v>
-      </c>
-      <c r="AB2">
-        <v>5.7338276881184491</v>
-      </c>
-      <c r="AC2">
-        <v>11.57192249809389</v>
-      </c>
-      <c r="AD2">
-        <v>6.9958073002258327</v>
-      </c>
-      <c r="AE2">
-        <v>-0.76256992960097902</v>
-      </c>
-      <c r="AF2">
-        <v>9.4186679141959697</v>
-      </c>
-      <c r="AG2">
-        <v>11.870835320365453</v>
-      </c>
-      <c r="AH2">
-        <v>7.0808208325992581</v>
-      </c>
-      <c r="AI2">
-        <v>19.864195787199566</v>
-      </c>
-      <c r="AJ2">
-        <v>7.8878156549522256</v>
-      </c>
-      <c r="AK2">
-        <v>12.880875189546753</v>
-      </c>
-      <c r="AL2">
-        <v>10.197424162633856</v>
-      </c>
-      <c r="AM2">
-        <v>11.33405637779472</v>
-      </c>
-      <c r="AN2">
-        <v>9.4831743329014362</v>
-      </c>
       <c r="AO2">
-        <v>9.5265338446141037</v>
+        <v>9.5265338309544916</v>
       </c>
       <c r="AP2">
-        <v>8.7357954883250688</v>
+        <v>8.7357954832116604</v>
       </c>
       <c r="AQ2">
-        <v>7.8741025701079854</v>
+        <v>7.8741025572924395</v>
       </c>
       <c r="AR2">
-        <v>10.203168832601859</v>
+        <v>10.19207387548245</v>
       </c>
       <c r="AS2">
-        <v>10.885455727027695</v>
+        <v>10.885455720221914</v>
       </c>
       <c r="AT2">
-        <v>12.227113096733918</v>
+        <v>12.597434300256193</v>
       </c>
       <c r="AU2">
-        <v>8.7760053337983823</v>
+        <v>9.2334601621180408</v>
       </c>
       <c r="AV2">
-        <v>4.6734600613199646</v>
+        <v>5.7276873208372967</v>
       </c>
       <c r="AW2">
-        <v>10.010836128626568</v>
+        <v>10.407306399349297</v>
       </c>
       <c r="AX2">
-        <v>10.00984560182896</v>
+        <v>10.255947072885657</v>
       </c>
       <c r="AY2">
-        <v>13.148417919119987</v>
+        <v>13.148417912189913</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>8.0116437613089886</v>
+      </c>
+      <c r="C3">
+        <v>14.511605464023299</v>
+      </c>
+      <c r="D3">
+        <v>16.423106056622792</v>
+      </c>
+      <c r="E3">
+        <v>7.6904169484897809</v>
+      </c>
+      <c r="F3">
+        <v>4.9710026901156663</v>
+      </c>
+      <c r="G3">
+        <v>10.783092522360407</v>
+      </c>
+      <c r="H3">
+        <v>13.490881525387339</v>
+      </c>
+      <c r="I3">
+        <v>8.7040631121851355</v>
+      </c>
+      <c r="J3">
+        <v>20.983574057353533</v>
+      </c>
+      <c r="K3">
+        <v>13.157924950644142</v>
+      </c>
+      <c r="L3">
+        <v>27.072190427149877</v>
+      </c>
+      <c r="M3">
+        <v>6.8368887136992464</v>
+      </c>
+      <c r="N3">
         <v>3.8442887910512433</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>6.0993965164398682</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>10.728003772677093</v>
+      </c>
+      <c r="Q3">
+        <v>5.9281748391490421</v>
+      </c>
+      <c r="R3">
+        <v>7.8484961585506969</v>
+      </c>
+      <c r="S3">
+        <v>7.4678042350527551</v>
+      </c>
+      <c r="T3">
+        <v>9.7981585943618121</v>
+      </c>
+      <c r="U3">
+        <v>10.215870017875918</v>
+      </c>
+      <c r="V3">
+        <v>15.333108847736398</v>
+      </c>
+      <c r="W3">
+        <v>9.6309107479445615</v>
+      </c>
+      <c r="X3">
+        <v>8.3466666554063362</v>
+      </c>
+      <c r="Y3">
+        <v>21.505852446001569</v>
+      </c>
+      <c r="Z3">
+        <v>9.807718916538203</v>
+      </c>
+      <c r="AA3">
+        <v>13.425691257824099</v>
+      </c>
+      <c r="AB3">
+        <v>10.047920387362398</v>
+      </c>
+      <c r="AC3">
+        <v>15.778575117981376</v>
+      </c>
+      <c r="AD3">
+        <v>9.5698965365748752</v>
+      </c>
+      <c r="AE3">
+        <v>10.155078863530528</v>
+      </c>
+      <c r="AF3">
+        <v>12.372543862343727</v>
+      </c>
+      <c r="AG3">
+        <v>16.269742416812864</v>
+      </c>
+      <c r="AH3">
+        <v>12.210900129466943</v>
+      </c>
+      <c r="AI3">
+        <v>15.086160399958843</v>
+      </c>
+      <c r="AJ3">
+        <v>15.308438122753918</v>
+      </c>
+      <c r="AK3">
+        <v>25.592632474363601</v>
+      </c>
+      <c r="AL3">
+        <v>11.857161542927546</v>
+      </c>
+      <c r="AM3">
         <v>14.79003409347435</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>5.6930233603028739</v>
       </c>
-      <c r="F3">
-        <v>4.6503373686071656</v>
-      </c>
-      <c r="G3">
-        <v>10.43055050365964</v>
-      </c>
-      <c r="H3">
-        <v>13.490881544216437</v>
-      </c>
-      <c r="I3">
-        <v>8.7040631171796559</v>
-      </c>
-      <c r="J3">
-        <v>20.983574060658849</v>
-      </c>
-      <c r="K3">
-        <v>13.157924966599207</v>
-      </c>
-      <c r="L3">
-        <v>27.072190448580113</v>
-      </c>
-      <c r="M3">
-        <v>6.3956197372024421</v>
-      </c>
-      <c r="N3">
-        <v>3.8442888047360695</v>
-      </c>
-      <c r="O3">
-        <v>6.0993965276501605</v>
-      </c>
-      <c r="P3">
-        <v>10.552449920538368</v>
-      </c>
-      <c r="Q3">
-        <v>5.7206289938847323</v>
-      </c>
-      <c r="R3">
-        <v>7.1870464646378558</v>
-      </c>
-      <c r="S3">
-        <v>7.4678042408134857</v>
-      </c>
-      <c r="T3">
-        <v>9.4633569708162408</v>
-      </c>
-      <c r="U3">
-        <v>10.215870031696712</v>
-      </c>
-      <c r="V3">
-        <v>15.333108855133235</v>
-      </c>
-      <c r="W3">
-        <v>9.6309107751829135</v>
-      </c>
-      <c r="X3">
-        <v>8.3466666789073045</v>
-      </c>
-      <c r="Y3">
-        <v>21.505852454477214</v>
-      </c>
-      <c r="Z3">
-        <v>9.7252757091860786</v>
-      </c>
-      <c r="AA3">
-        <v>13.425691272092596</v>
-      </c>
-      <c r="AB3">
-        <v>9.7329036937160698</v>
-      </c>
-      <c r="AC3">
-        <v>15.778575134137698</v>
-      </c>
-      <c r="AD3">
-        <v>9.5698965591762146</v>
-      </c>
-      <c r="AE3">
-        <v>10.141355613201837</v>
-      </c>
-      <c r="AF3">
-        <v>12.082563621775925</v>
-      </c>
-      <c r="AG3">
-        <v>16.269742433502042</v>
-      </c>
-      <c r="AH3">
-        <v>12.210900127866012</v>
-      </c>
-      <c r="AI3">
-        <v>15.086160424335167</v>
-      </c>
-      <c r="AJ3">
-        <v>15.30843814473557</v>
-      </c>
-      <c r="AK3">
-        <v>25.592632496292683</v>
-      </c>
-      <c r="AL3">
-        <v>11.303093638340981</v>
-      </c>
-      <c r="AM3">
-        <v>14.790034109829969</v>
-      </c>
-      <c r="AN3">
-        <v>5.6930233689484684</v>
-      </c>
       <c r="AO3">
-        <v>11.931127593130753</v>
+        <v>12.152263077948801</v>
       </c>
       <c r="AP3">
-        <v>7.9678687302221398</v>
+        <v>8.1698845106420812</v>
       </c>
       <c r="AQ3">
-        <v>8.3593872201252051</v>
+        <v>8.686184479998504</v>
       </c>
       <c r="AR3">
-        <v>11.123019688294047</v>
+        <v>11.123019677438768</v>
       </c>
       <c r="AS3">
-        <v>8.7877580667308379</v>
+        <v>8.9774593955486353</v>
       </c>
       <c r="AT3">
-        <v>8.5189728348005023</v>
+        <v>8.5189728238005902</v>
       </c>
       <c r="AU3">
-        <v>10.117433706619366</v>
+        <v>10.117433696941115</v>
       </c>
       <c r="AV3">
-        <v>10.772399076842172</v>
+        <v>10.772399048444212</v>
       </c>
       <c r="AW3">
-        <v>9.1741580503239319</v>
+        <v>9.1741580415979218</v>
       </c>
       <c r="AX3">
-        <v>11.506768785785056</v>
+        <v>11.506768774115809</v>
       </c>
       <c r="AY3">
-        <v>31.933102877285641</v>
+        <v>32.047736951664959</v>
       </c>
     </row>
   </sheetData>
